--- a/product-definitions/spreadsheet/oh-concentration.xlsx
+++ b/product-definitions/spreadsheet/oh-concentration.xlsx
@@ -12,20 +12,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="40">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>units</t>
+  </si>
   <si>
     <t>Variable</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Length</t>
-  </si>
-  <si>
-    <t>units</t>
-  </si>
-  <si>
     <t>Attribute</t>
   </si>
   <si>
@@ -83,18 +83,7 @@
     <t>cell_methods</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">time: </t>
-    </r>
-    <r>
-      <rPr>
-        <color rgb="FFFF0000"/>
-      </rPr>
-      <t>????</t>
-    </r>
-  </si>
-  <si>
-    <t>mean or point</t>
+    <t>time: mean or time: point</t>
   </si>
   <si>
     <t>coordinates</t>
@@ -109,32 +98,10 @@
     <t>Number Concentration of Hydroperoxyl Radical in air</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">time: </t>
-    </r>
-    <r>
-      <rPr>
-        <color rgb="FFFF0000"/>
-      </rPr>
-      <t>????</t>
-    </r>
-  </si>
-  <si>
     <t>sum_of _hydroxyl_and_hydroperoxyl_radical_concentration_in_air</t>
   </si>
   <si>
-    <t>Sum of  Hydroxyl and Hydroperoxyl Radical Concentration_in_air</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">time: </t>
-    </r>
-    <r>
-      <rPr>
-        <color rgb="FFFF0000"/>
-      </rPr>
-      <t>????</t>
-    </r>
+    <t>Sum of  Hydroxyl and Hydroperoxyl Radical Concentration in air</t>
   </si>
   <si>
     <t>hydroxyl_radical_reactivity_in_air</t>
@@ -144,17 +111,6 @@
   </si>
   <si>
     <t>Hydroxyl Radical Reactivity in air</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">time: </t>
-    </r>
-    <r>
-      <rPr>
-        <color rgb="FFFF0000"/>
-      </rPr>
-      <t>????</t>
-    </r>
   </si>
   <si>
     <t>qc_flag</t>
@@ -227,28 +183,28 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
@@ -276,6 +232,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -327,154 +286,154 @@
   <sheetData>
     <row r="1" ht="12.0" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
     </row>
     <row r="2">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
     </row>
     <row r="3" ht="12.0" customHeight="1">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
     </row>
     <row r="4" ht="12.0" customHeight="1">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
     </row>
     <row r="5" ht="12.0" customHeight="1">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
     </row>
     <row r="6" ht="12.0" customHeight="1">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
     </row>
     <row r="7" ht="12.0" customHeight="1">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
     </row>
     <row r="8" ht="12.0" customHeight="1">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
     </row>
     <row r="9" ht="12.0" customHeight="1">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
     </row>
     <row r="10" ht="12.0" customHeight="1">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
     </row>
     <row r="11" ht="12.0" customHeight="1">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
     </row>
     <row r="12" ht="12.0" customHeight="1">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
     </row>
     <row r="13" ht="12.0" customHeight="1">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
     </row>
     <row r="14" ht="12.0" customHeight="1">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
     </row>
     <row r="15" ht="12.0" customHeight="1">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
     </row>
     <row r="16" ht="12.0" customHeight="1">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
     </row>
     <row r="17" ht="12.0" customHeight="1">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
     </row>
     <row r="18" ht="12.0" customHeight="1">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
     </row>
     <row r="19" ht="12.0" customHeight="1">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
     </row>
     <row r="20" ht="12.0" customHeight="1">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
     </row>
     <row r="21" ht="12.0" customHeight="1">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -502,35 +461,35 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.0" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" ht="12.0" customHeight="1">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3"/>
+      <c r="B2" s="2"/>
       <c r="C2" s="8"/>
     </row>
     <row r="3" ht="12.0" customHeight="1">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="9" t="s">
@@ -538,8 +497,8 @@
       </c>
     </row>
     <row r="4" ht="12.0" customHeight="1">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="10" t="s">
@@ -547,36 +506,36 @@
       </c>
     </row>
     <row r="5" ht="12.0" customHeight="1">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3" t="s">
-        <v>3</v>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" ht="12.0" customHeight="1">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="10"/>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" ht="12.0" customHeight="1">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" ht="12.0" customHeight="1">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3" t="s">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="12">
@@ -584,8 +543,8 @@
       </c>
     </row>
     <row r="9" ht="12.0" customHeight="1">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="13" t="s">
@@ -593,8 +552,8 @@
       </c>
     </row>
     <row r="10" ht="12.0" customHeight="1">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3" t="s">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="13" t="s">
@@ -602,43 +561,41 @@
       </c>
     </row>
     <row r="11" ht="12.0" customHeight="1">
-      <c r="A11" s="3"/>
+      <c r="A11" s="2"/>
       <c r="B11" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="15"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16" t="s">
+    </row>
+    <row r="12" ht="12.0" customHeight="1">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" ht="12.0" customHeight="1">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="10" t="s">
+    </row>
+    <row r="13" ht="12.0" customHeight="1">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="10"/>
+    </row>
+    <row r="14" ht="12.0" customHeight="1">
+      <c r="A14" s="7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" ht="12.0" customHeight="1">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="10"/>
-    </row>
-    <row r="14" ht="12.0" customHeight="1">
-      <c r="A14" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="3"/>
+      <c r="B14" s="2"/>
       <c r="C14" s="8"/>
-      <c r="E14" s="17"/>
+      <c r="E14" s="18"/>
     </row>
     <row r="15" ht="12.0" customHeight="1">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3" t="s">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="9" t="s">
@@ -646,8 +603,8 @@
       </c>
     </row>
     <row r="16" ht="12.0" customHeight="1">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3" t="s">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="10" t="s">
@@ -655,36 +612,36 @@
       </c>
     </row>
     <row r="17" ht="12.0" customHeight="1">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3" t="s">
-        <v>3</v>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="18" ht="12.0" customHeight="1">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3" t="s">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" ht="12.0" customHeight="1">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" ht="12.0" customHeight="1">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
     <row r="20" ht="12.0" customHeight="1">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3" t="s">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C20" s="12">
@@ -692,8 +649,8 @@
       </c>
     </row>
     <row r="21" ht="12.0" customHeight="1">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3" t="s">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="13" t="s">
@@ -701,8 +658,8 @@
       </c>
     </row>
     <row r="22" ht="12.0" customHeight="1">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3" t="s">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C22" s="13" t="s">
@@ -710,42 +667,40 @@
       </c>
     </row>
     <row r="23" ht="12.0" customHeight="1">
-      <c r="A23" s="3"/>
+      <c r="A23" s="2"/>
       <c r="B23" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="15" t="s">
-        <v>29</v>
-      </c>
+      <c r="C23" s="15"/>
       <c r="D23" s="16"/>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" ht="12.0" customHeight="1">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="24" ht="12.0" customHeight="1">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3" t="s">
+      <c r="C24" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="10" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="25" ht="12.0" customHeight="1">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
       <c r="C25" s="10"/>
     </row>
     <row r="26" ht="12.0" customHeight="1">
-      <c r="A26" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="3"/>
+      <c r="A26" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="2"/>
       <c r="C26" s="8"/>
     </row>
     <row r="27" ht="12.0" customHeight="1">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3" t="s">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C27" s="9" t="s">
@@ -753,8 +708,8 @@
       </c>
     </row>
     <row r="28" ht="12.0" customHeight="1">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3" t="s">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C28" s="10" t="s">
@@ -762,36 +717,36 @@
       </c>
     </row>
     <row r="29" ht="12.0" customHeight="1">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" s="18" t="s">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="19" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="30" ht="12.0" customHeight="1">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3" t="s">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C30" s="13"/>
-      <c r="D30" s="17" t="s">
-        <v>30</v>
+      <c r="D30" s="18" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="31" ht="12.0" customHeight="1">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3" t="s">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="17" t="s">
-        <v>31</v>
+      <c r="C31" s="18" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="32" ht="12.0" customHeight="1">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3" t="s">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C32" s="12">
@@ -799,8 +754,8 @@
       </c>
     </row>
     <row r="33" ht="12.0" customHeight="1">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3" t="s">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C33" s="13" t="s">
@@ -808,8 +763,8 @@
       </c>
     </row>
     <row r="34" ht="12.0" customHeight="1">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3" t="s">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C34" s="13" t="s">
@@ -817,42 +772,40 @@
       </c>
     </row>
     <row r="35" ht="12.0" customHeight="1">
-      <c r="A35" s="3"/>
+      <c r="A35" s="2"/>
       <c r="B35" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="15" t="s">
-        <v>32</v>
-      </c>
+      <c r="C35" s="15"/>
       <c r="D35" s="16"/>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" ht="12.0" customHeight="1">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="36" ht="12.0" customHeight="1">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3" t="s">
+      <c r="C36" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="10" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="37" ht="12.0" customHeight="1">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
       <c r="C37" s="10"/>
     </row>
     <row r="38" ht="12.0" customHeight="1">
-      <c r="A38" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B38" s="3"/>
+      <c r="A38" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" s="2"/>
       <c r="C38" s="8"/>
     </row>
     <row r="39" ht="12.0" customHeight="1">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3" t="s">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C39" s="9" t="s">
@@ -860,8 +813,8 @@
       </c>
     </row>
     <row r="40" ht="12.0" customHeight="1">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3" t="s">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C40" s="10" t="s">
@@ -869,36 +822,36 @@
       </c>
     </row>
     <row r="41" ht="12.0" customHeight="1">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3" t="s">
-        <v>3</v>
+      <c r="A41" s="2"/>
+      <c r="B41" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" ht="12.0" customHeight="1">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3" t="s">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C42" s="10"/>
-      <c r="D42" s="6" t="s">
-        <v>33</v>
+      <c r="D42" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="43" ht="12.0" customHeight="1">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3" t="s">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C43" s="6" t="s">
-        <v>35</v>
+      <c r="C43" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="44" ht="12.0" customHeight="1">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3" t="s">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C44" s="12">
@@ -906,8 +859,8 @@
       </c>
     </row>
     <row r="45" ht="12.0" customHeight="1">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3" t="s">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C45" s="13" t="s">
@@ -915,8 +868,8 @@
       </c>
     </row>
     <row r="46" ht="12.0" customHeight="1">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3" t="s">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C46" s="13" t="s">
@@ -924,51 +877,49 @@
       </c>
     </row>
     <row r="47" ht="12.0" customHeight="1">
-      <c r="A47" s="3"/>
+      <c r="A47" s="2"/>
       <c r="B47" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C47" s="15" t="s">
-        <v>36</v>
-      </c>
+      <c r="C47" s="15"/>
       <c r="D47" s="16"/>
-      <c r="E47" s="16" t="s">
+      <c r="E47" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" ht="12.0" customHeight="1">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="48" ht="12.0" customHeight="1">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3" t="s">
+      <c r="C48" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C48" s="10" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="49" ht="12.0" customHeight="1">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
       <c r="C49" s="10"/>
     </row>
     <row r="50" ht="12.0" customHeight="1">
-      <c r="A50" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B50" s="3"/>
+      <c r="A50" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B50" s="2"/>
       <c r="C50" s="10"/>
     </row>
     <row r="51" ht="12.0" customHeight="1">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3" t="s">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52" ht="12.0" customHeight="1">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3" t="s">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C52" s="10" t="s">
@@ -976,61 +927,61 @@
       </c>
     </row>
     <row r="53" ht="12.0" customHeight="1">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3" t="s">
-        <v>3</v>
+      <c r="A53" s="2"/>
+      <c r="B53" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="C53" s="10">
         <v>1.0</v>
       </c>
     </row>
     <row r="54" ht="12.0" customHeight="1">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3" t="s">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C54" s="10"/>
     </row>
     <row r="55" ht="12.0" customHeight="1">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3" t="s">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C55" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="56" ht="12.0" customHeight="1">
+      <c r="A56" s="2"/>
+      <c r="B56" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="20"/>
+    </row>
+    <row r="57" ht="12.0" customHeight="1">
+      <c r="A57" s="2"/>
+      <c r="B57" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C57" s="21" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="56" ht="12.0" customHeight="1">
-      <c r="A56" s="3"/>
-      <c r="B56" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C56" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D56" s="19"/>
-      <c r="E56" s="19"/>
-      <c r="F56" s="19"/>
-      <c r="G56" s="19"/>
-      <c r="H56" s="19"/>
-    </row>
-    <row r="57" ht="12.0" customHeight="1">
-      <c r="A57" s="3"/>
-      <c r="B57" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C57" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="D57" s="21"/>
-      <c r="E57" s="21"/>
-      <c r="F57" s="21"/>
-      <c r="G57" s="21"/>
-      <c r="H57" s="21"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="22"/>
     </row>
     <row r="58" ht="12.0" customHeight="1">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
       <c r="C58" s="8"/>
     </row>
     <row r="59">
